--- a/tests/Muhamad/Add New Patient.xlsx
+++ b/tests/Muhamad/Add New Patient.xlsx
@@ -72,9 +72,6 @@
     <t>Patient ID</t>
   </si>
   <si>
-    <t>Does the customer exist in DB?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
 Type Patient E-mail:Moshe@e-mail.com
 Type Patient HMO ID:114
 Press "Cancel"</t>
+  </si>
+  <si>
+    <t>Does the patient exist in DB?</t>
   </si>
 </sst>
 </file>
@@ -659,6 +659,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -668,47 +707,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,34 +1009,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1044,244 +1044,244 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>123456789</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>987654321</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>123456789</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>987654321</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
